--- a/out/domingo - salida.xlsx/resumen_3.xlsx
+++ b/out/domingo - salida.xlsx/resumen_3.xlsx
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.09375</v>
+        <v>2.734375</v>
       </c>
       <c r="C3" t="n">
-        <v>1.53125</v>
+        <v>2.625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.234375</v>
+        <v>0.171875</v>
       </c>
       <c r="E3" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.28125</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.09375</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.046875</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.703125</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.015625</v>
+      </c>
+      <c r="L3" t="n">
+        <v>29.34375</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.234375</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.109375</v>
-      </c>
-      <c r="F3" t="n">
-        <v>19.421875</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.953125</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.578125</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.15625</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.875</v>
-      </c>
-      <c r="L3" t="n">
-        <v>32.40625</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9.046875</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.984375</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.09851610460102</v>
+        <v>1.853715167072579</v>
       </c>
       <c r="C4" t="n">
-        <v>1.642382609175047</v>
+        <v>2.081665999466133</v>
       </c>
       <c r="D4" t="n">
-        <v>0.495765801723687</v>
+        <v>0.4897257898113486</v>
       </c>
       <c r="E4" t="n">
-        <v>1.59480493408372</v>
+        <v>0.9767891602040143</v>
       </c>
       <c r="F4" t="n">
-        <v>6.43108691966249</v>
+        <v>10.10495517296435</v>
       </c>
       <c r="G4" t="n">
-        <v>2.886364701571198</v>
+        <v>7.444437040981867</v>
       </c>
       <c r="H4" t="n">
-        <v>3.379699843439655</v>
+        <v>2.751217263062194</v>
       </c>
       <c r="I4" t="n">
-        <v>2.283263815417231</v>
+        <v>1.822954931571179</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9343531843023135</v>
+        <v>0.7303986191506272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.359421718944242</v>
+        <v>3.529882355609666</v>
       </c>
       <c r="L4" t="n">
-        <v>12.8232412389776</v>
+        <v>7.404886310392704</v>
       </c>
       <c r="M4" t="n">
-        <v>3.263213371500017</v>
+        <v>2.395380391967469</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4178554470186724</v>
+        <v>0.3145764348029479</v>
       </c>
       <c r="O4" t="n">
-        <v>1.105429421695119</v>
+        <v>1.156310326611577</v>
       </c>
     </row>
     <row r="5">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -720,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>14.75</v>
+        <v>13.75</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -735,13 +735,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L6" t="n">
-        <v>22.75</v>
+        <v>24.75</v>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -757,40 +757,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="M7" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -806,10 +806,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>25.25</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -836,16 +836,16 @@
         <v>6</v>
       </c>
       <c r="L8" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M8" t="n">
-        <v>11.25</v>
+        <v>7</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
         <v>9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
+        <v>33</v>
+      </c>
+      <c r="H9" t="n">
         <v>11</v>
       </c>
-      <c r="H9" t="n">
-        <v>15</v>
-      </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L9" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
